--- a/data/income_statement/2digits/size/47_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/47_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>47-Retail trade, except of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>47-Retail trade, except of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>51237549.09770999</v>
+        <v>51177407.43176001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>56405813.20696</v>
+        <v>56460477.26733</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>67413206.36580001</v>
+        <v>67604976.29087001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>72376139.67590998</v>
+        <v>72971689.71594</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>96223009.50650999</v>
+        <v>97775045.75116999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>101408699.18402</v>
+        <v>103141822.88033</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>101768037.27436</v>
+        <v>104544760.97969</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>107581030.17977</v>
+        <v>109749273.1717</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>119822831.99504</v>
+        <v>122367705.25351</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>169372007.83183</v>
+        <v>169161105.13308</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>187480134.09837</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>205577268.04347</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>204903438.49</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>49708335.21842</v>
+        <v>49638185.14529</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>54590314.60072999</v>
+        <v>54626396.85374</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>65170295.2603</v>
+        <v>65307753.77294999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>70185564.56645</v>
+        <v>70728678.69838999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>93046286.40810001</v>
+        <v>94481360.04706</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>97995336.92048</v>
+        <v>99630348.49157001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>98027394.06597</v>
+        <v>100656215.28349</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>103895815.18022</v>
+        <v>105838509.59118</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>115515661.32852</v>
+        <v>117836308.12005</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>163266675.3086</v>
+        <v>162815981.65421</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>179769132.22256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>197584803.28291</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>196339015.166</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>755816.7033200001</v>
+        <v>764827.3042700001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>887301.55379</v>
+        <v>899786.4142500001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1162334.24182</v>
+        <v>1197867.31801</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1051233.19329</v>
+        <v>1078337.76769</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1607511.3777</v>
+        <v>1689084.53153</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1785116.87212</v>
+        <v>1832053.68</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1954933.76873</v>
+        <v>2026346.03539</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1716418.4026</v>
+        <v>1845428.39274</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>2280313.24412</v>
+        <v>2393863.59117</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2885535.47761</v>
+        <v>3152879.82302</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>4056672.6113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4176367.25452</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>4760093.466</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>773397.17597</v>
+        <v>774394.9822</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>928197.0524399999</v>
+        <v>934293.99934</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1080576.86368</v>
+        <v>1099355.19991</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1139341.91617</v>
+        <v>1164673.24986</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1569211.72071</v>
+        <v>1604601.17258</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1628245.39142</v>
+        <v>1679420.70876</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1785709.43966</v>
+        <v>1862199.66081</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1968796.59695</v>
+        <v>2065335.18778</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>2026857.4224</v>
+        <v>2137533.54229</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>3219797.04562</v>
+        <v>3192243.65585</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>3654329.26451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>3816097.50604</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>3804329.858</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>472651.39027</v>
+        <v>486390.7054399999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>513611.55071</v>
+        <v>529310.59577</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>590044.5599699999</v>
+        <v>612527.94929</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>663324.58218</v>
+        <v>699998.3720399999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>901696.64156</v>
+        <v>958818.13997</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1099856.166</v>
+        <v>1136103.31271</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1192547.12228</v>
+        <v>1243599.46842</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1215031.71595</v>
+        <v>1266863.69077</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1568540.16893</v>
+        <v>1631558.90337</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2597101.75989</v>
+        <v>2603497.10666</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>3825644.90807</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19227828.63204</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>3213661.278</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>300202.37079</v>
+        <v>312521.8316499999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>326709.84853</v>
+        <v>336975.40172</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>398111.1271699999</v>
+        <v>413098.08257</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>486491.91012</v>
+        <v>499357.325</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>644860.50443</v>
+        <v>684886.8537000002</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>838046.2121400001</v>
+        <v>863834.2408</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>920004.2583400001</v>
+        <v>959086.7224699999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>794403.0164</v>
+        <v>842856.54375</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1097071.42441</v>
+        <v>1143606.44551</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1672703.73358</v>
+        <v>1667894.68189</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2683710.10766</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>18033091.43374</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>2057702.341</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>155267.21548</v>
+        <v>156691.37715</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>170652.63915</v>
+        <v>177937.80962</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>165850.79765</v>
+        <v>172876.53611</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>152702.47382</v>
+        <v>156096.17961</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>212473.58316</v>
+        <v>227956.08394</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>208555.38054</v>
+        <v>216640.43227</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>196711.07091</v>
+        <v>208786.01571</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>229260.33932</v>
+        <v>233527.93923</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>213533.54135</v>
+        <v>223957.72697</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>354068.9027299999</v>
+        <v>359040.7649299999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>488063.65115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>528292.14277</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>460316.702</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>17181.804</v>
+        <v>17177.49664</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>16249.06303</v>
+        <v>14397.38443</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>26082.63515</v>
+        <v>26553.33061</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>24130.19824</v>
+        <v>44544.86743</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>44362.55397000001</v>
+        <v>45975.20233000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>53254.57332</v>
+        <v>55628.63964</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>75831.79303</v>
+        <v>75726.73023999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>191368.36023</v>
+        <v>190479.20779</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>257935.20317</v>
+        <v>263994.73089</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>570329.1235799999</v>
+        <v>576561.65984</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>653871.1492600001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>666445.05553</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>695642.235</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>50764897.70744</v>
+        <v>50691016.72632</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>55892201.65625</v>
+        <v>55931166.67155999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>66823161.80582999</v>
+        <v>66992448.34158</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>71712815.09373002</v>
+        <v>72271691.3439</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>95321312.86495</v>
+        <v>96816227.61119999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>100308843.01802</v>
+        <v>102005719.56762</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>100575490.15208</v>
+        <v>103301161.51127</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>106365998.46382</v>
+        <v>108482409.48093</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>118254291.82611</v>
+        <v>120736146.35014</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>166774906.07194</v>
+        <v>166557608.02642</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>183654489.1903</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>186349439.41143</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>201689777.212</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>44858448.48600999</v>
+        <v>44801444.78822</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>49339339.35458</v>
+        <v>49377895.87013999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>59261180.65154</v>
+        <v>59393416.58680001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>63496504.68564999</v>
+        <v>63957209.03247</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>84683052.55195999</v>
+        <v>86033873.55142002</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>89030347.7121</v>
+        <v>90569727.49381</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>88464220.34536999</v>
+        <v>90814864.82803999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>93179385.95989001</v>
+        <v>94966351.22765002</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>103809679.46763</v>
+        <v>105823439.95617</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>147376018.68007</v>
+        <v>147375606.40034</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>161477660.73095</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>163925953.80729</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>178583928.521</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1409292.08852</v>
+        <v>1403898.00546</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1498562.10234</v>
+        <v>1488239.39859</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1840797.60329</v>
+        <v>1846971.95757</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1863556.64846</v>
+        <v>1851270.21877</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2510551.1292</v>
+        <v>2548350.38222</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2833259.2921</v>
+        <v>2855597.96277</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2649793.06081</v>
+        <v>2711133.73764</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>3113151.15276</v>
+        <v>3229843.9288</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3512000.52943</v>
+        <v>3624213.38351</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>5062977.984259999</v>
+        <v>5156819.28228</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>5600554.08073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5618226.287210001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>6080865.436</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>42368001.01769</v>
+        <v>42302091.15583</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>46607709.49929</v>
+        <v>46658642.56552</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>56001903.92155</v>
+        <v>56147203.23062</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>60110243.63195</v>
+        <v>60580388.33290999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>80254796.87745999</v>
+        <v>81541599.69893001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>83963167.03521998</v>
+        <v>85434810.75409001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>83263624.89684999</v>
+        <v>85478844.954</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>87563088.75946</v>
+        <v>89177413.64480001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>97588952.76556</v>
+        <v>99437054.73067997</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>138600478.88449</v>
+        <v>138497779.49489</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>151703278.55816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>154033075.32074</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>168156908.52</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1037673.30415</v>
+        <v>1052174.33303</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1193279.91826</v>
+        <v>1184385.31247</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1370128.77078</v>
+        <v>1348795.7832</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1459331.5982</v>
+        <v>1459207.30701</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1823575.97592</v>
+        <v>1840939.29883</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2093404.41755</v>
+        <v>2125044.77455</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2015932.19145</v>
+        <v>2074860.71765</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2307195.38057</v>
+        <v>2352409.61203</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2494187.13356</v>
+        <v>2533689.84753</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3387563.97988</v>
+        <v>3404133.81585</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3743935.87058</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3851528.95513</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3885678.027</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>43482.07565</v>
+        <v>43281.2939</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>39787.83469</v>
+        <v>46628.59356</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>48350.35591999999</v>
+        <v>50445.61541</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>63372.80704</v>
+        <v>66343.17378</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>94128.56938</v>
+        <v>102984.17144</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>140516.96723</v>
+        <v>154274.0024</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>534870.1962599999</v>
+        <v>550025.41875</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>195950.6671</v>
+        <v>206684.04202</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>214539.03908</v>
+        <v>228481.99445</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>324997.83144</v>
+        <v>316873.80732</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>429892.2214799999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>423123.24421</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>460476.538</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>5906449.22143</v>
+        <v>5889571.938100001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>6552862.30167</v>
+        <v>6553270.80142</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>7561981.154290001</v>
+        <v>7599031.754780001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>8216310.408079999</v>
+        <v>8314482.311430001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>10638260.31299</v>
+        <v>10782354.05978</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>11278495.30592</v>
+        <v>11435992.07381</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>12111269.80671</v>
+        <v>12486296.68323</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>13186612.50393</v>
+        <v>13516058.25328</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>14444612.35848</v>
+        <v>14912706.39397</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>19398887.39187</v>
+        <v>19182001.62608</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>22176828.45935</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>22423485.60414</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>23105848.691</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>4762507.41188</v>
+        <v>4756594.38532</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>5261003.551540001</v>
+        <v>5284324.31376</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>6136342.019180001</v>
+        <v>6151972.70687</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>6841055.43578</v>
+        <v>6907180.472639999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>8816495.249289999</v>
+        <v>8908588.700119998</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>9457575.552229999</v>
+        <v>9542106.9695</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>10092610.46346</v>
+        <v>10322136.61885</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>11261408.46197</v>
+        <v>11429573.35293</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>12028901.21319</v>
+        <v>12232645.98888</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>16051906.19532</v>
+        <v>15800752.41279</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>18338818.90343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>18377756.28188</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>18539874.384</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>10208.41064</v>
+        <v>10514.64676</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>7092.92476</v>
+        <v>6940.26795</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>13143.42423</v>
+        <v>10616.06514</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>10553.01801</v>
+        <v>9965.140150000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>8402.936470000001</v>
+        <v>7972.34657</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>14664.58768</v>
+        <v>13586.1615</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>14271.7655</v>
+        <v>12682.29199</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>13767.76143</v>
+        <v>13822.35202</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>20609.89544</v>
+        <v>20055.78951</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>36855.34239</v>
+        <v>35248.10702</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>77990.55748</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>73830.37953999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>48187.488</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>1516798.02717</v>
+        <v>1535650.05526</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1654751.89743</v>
+        <v>1686931.27238</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1962328.04297</v>
+        <v>2009916.85336</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2188747.62709</v>
+        <v>2246985.60682</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2943287.81334</v>
+        <v>3049049.43446</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>3085022.237749999</v>
+        <v>3182906.84404</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>3334057.52371</v>
+        <v>3502982.266150001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3676363.23337</v>
+        <v>3816832.81416</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>3885810.18828</v>
+        <v>4045123.65022</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>5913698.171390001</v>
+        <v>5934931.41757</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>7003840.108510001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>7191570.00269</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>7136823.521</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>3235500.97407</v>
+        <v>3210429.6833</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>3599158.72935</v>
+        <v>3590452.773430001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>4160870.55198</v>
+        <v>4131439.788369999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>4641754.79068</v>
+        <v>4650229.725670001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>5864804.499480001</v>
+        <v>5851566.91909</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>6357888.7268</v>
+        <v>6345613.96396</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>6744281.17425</v>
+        <v>6806472.06071</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>7571277.467170001</v>
+        <v>7598918.18675</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>8122481.129469999</v>
+        <v>8167466.549149999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>10101352.68154</v>
+        <v>9830572.888199998</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>11256988.23744</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>11112355.89965</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>11354863.375</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1143941.80955</v>
+        <v>1132977.55278</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1291858.75013</v>
+        <v>1268946.48766</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1425639.13511</v>
+        <v>1447059.04791</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1375254.9723</v>
+        <v>1407301.83879</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1821765.0637</v>
+        <v>1873765.35966</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1820919.75369</v>
+        <v>1893885.10431</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2018659.34325</v>
+        <v>2164160.064379999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1925204.04196</v>
+        <v>2086484.90035</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>2415711.145289999</v>
+        <v>2680060.40509</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3346981.19655</v>
+        <v>3381249.21329</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3838009.55592</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4045729.32226</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>4565974.307</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>279933.63964</v>
+        <v>314022.3483</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>332092.0781</v>
+        <v>427931.03155</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>388205.04977</v>
+        <v>558959.36332</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>373542.65438</v>
+        <v>494161.16746</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>548969.4625199999</v>
+        <v>653440.09918</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>587688.6753299999</v>
+        <v>697599.83823</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>698658.64485</v>
+        <v>774177.22728</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>748344.8157599999</v>
+        <v>964792.6968600001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>781887.30083</v>
+        <v>951533.4012</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2622040.22158</v>
+        <v>2668810.72602</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1833400.37342</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1891449.3604</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2662099.135</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>3222.09963</v>
+        <v>2053.33234</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>3232.61278</v>
+        <v>50497.65361</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1313.72289</v>
+        <v>31995.12708</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>2435.61802</v>
+        <v>27976.00161</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>5021.44659</v>
+        <v>34622.86016</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>4693.35919</v>
+        <v>35258.58584000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2613.56388</v>
+        <v>1038.25062</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>14639.85288</v>
+        <v>57807.54156000001</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>6638.67661</v>
+        <v>12393.90645</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>25103.87509</v>
+        <v>59731.12822999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>26289.55926</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>23804.87204</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>48237.54</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>414.33629</v>
+        <v>704.4400000000001</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>276.85384</v>
+        <v>44.79337</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>2198.03474</v>
+        <v>102290.04088</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>400.76317</v>
+        <v>1979.96837</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>521.6629</v>
+        <v>1185.80384</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>643.0298</v>
+        <v>4137.76064</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1139.64744</v>
+        <v>15056.35033</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>2481.73381</v>
+        <v>21607.41685</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>4080.90065</v>
+        <v>23112.21439</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>4366.55517</v>
+        <v>15729.83156</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>8229.73043</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>54036.75968</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>26368.311</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>31813.01668</v>
+        <v>33037.60687</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>30153.0471</v>
+        <v>33539.46588</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>29405.83477</v>
+        <v>38004.22923999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>36079.0135</v>
+        <v>58094.17172</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>48303.43807000001</v>
+        <v>59791.42231</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>59075.59122000001</v>
+        <v>66953.02149</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>64957.08225</v>
+        <v>74950.94207</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>70037.64906</v>
+        <v>84504.45582999999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>86903.88675000001</v>
+        <v>118511.29047</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>227264.63466</v>
+        <v>245710.844</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>279149.78275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>286708.12899</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>305740.261</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>11987.19961</v>
+        <v>14123.08107</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>11041.01086</v>
+        <v>12422.70643</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>12422.55116</v>
+        <v>16645.40696</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>14586.30434</v>
+        <v>16679.48384</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>21510.23789</v>
+        <v>20781.75747</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>18171.78866</v>
+        <v>16803.78641</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>15607.10046</v>
+        <v>14475.17516</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>16497.05826</v>
+        <v>15456.95036</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>16416.05738</v>
+        <v>15030.86422</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>12650.23107</v>
+        <v>12309.15958</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>19856.63751</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>20320.03591</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>20835.213</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>11059.23093</v>
+        <v>13133.37513</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>12422.2796</v>
+        <v>13463.22774</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>14635.71736</v>
+        <v>13686.27624</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>11520.20478</v>
+        <v>9382.339250000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>14890.28853</v>
+        <v>13444.12332</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>8675.760900000001</v>
+        <v>9219.194579999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>10023.30489</v>
+        <v>12689.43721</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>10512.96731</v>
+        <v>9251.559080000001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>9113.512200000001</v>
+        <v>11096.25982</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>17505.79271</v>
+        <v>14248.95836</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>16467.99009</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>16525.15542</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>22281.603</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>4130.2979</v>
+        <v>4011.22047</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>2234.65264</v>
+        <v>2057.90453</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>4786.69075</v>
+        <v>4174.44543</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>4145.27037</v>
+        <v>4065.77816</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>10186.76664</v>
+        <v>9440.407019999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>6335.59371</v>
+        <v>6301.444119999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>9892.064390000001</v>
+        <v>7170.99398</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>8410.715249999999</v>
+        <v>12526.60578</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>5699.982419999999</v>
+        <v>4870.07014</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>12021.5183</v>
+        <v>10723.59007</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>24928.83605</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>27918.88771</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>28758.687</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>70421.27189999999</v>
+        <v>94862.42900000002</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>73081.87607</v>
+        <v>110042.93087</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>98849.64751000001</v>
+        <v>117833.64239</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>64741.48078999999</v>
+        <v>110498.98314</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>121392.87678</v>
+        <v>165344.91391</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>123210.92449</v>
+        <v>163695.82686</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>206256.46</v>
+        <v>256272.53915</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>153092.28989</v>
+        <v>275808.2554100001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>169021.53386</v>
+        <v>251030.46056</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1344228.08569</v>
+        <v>1390493.10668</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>462072.20777</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>507386.03343</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1129207.449</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>1244.81756</v>
+        <v>2065.3655</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>1061.4756</v>
+        <v>1108.48672</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>544.4465300000001</v>
+        <v>1833.75863</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>626.98876</v>
+        <v>1289.86123</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>1371.57516</v>
+        <v>1578.4205</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>1509.58607</v>
+        <v>1675.81332</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1360.1426</v>
+        <v>1352.9508</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>765.59226</v>
+        <v>1064.43157</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>338.9805099999999</v>
+        <v>359.42306</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>1298.36611</v>
+        <v>2973.2443</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>10303.79181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>3739.06566</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>1974.063</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>4783.3633</v>
+        <v>3892.189229999999</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>7353.309990000001</v>
+        <v>10761.27884</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>11028.59605</v>
+        <v>10448.12251</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>7498.291939999999</v>
+        <v>6989.96249</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>17644.02875</v>
+        <v>16352.03738</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>20614.34653</v>
+        <v>20118.55024</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>26538.33005</v>
+        <v>26156.71451</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>33158.43786999999</v>
+        <v>34381.76496</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>48426.79354999999</v>
+        <v>50222.1844</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>135482.37798</v>
+        <v>115975.8532</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>53977.32401</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>47418.24041</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>134628.19</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>140858.00584</v>
+        <v>146139.30869</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>191234.95962</v>
+        <v>193992.58356</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>213019.80801</v>
+        <v>222048.31396</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>231508.71871</v>
+        <v>257204.61765</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>308127.14121</v>
+        <v>330898.35327</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>344758.69476</v>
+        <v>373435.85473</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>360270.94889</v>
+        <v>365013.87345</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>438748.51917</v>
+        <v>452383.71546</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>435246.9769</v>
+        <v>464906.72769</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>842118.7847999999</v>
+        <v>800915.01004</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>932124.51374</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>903592.1811500001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>944067.818</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>197752.90934</v>
+        <v>247460.79395</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>182189.91417</v>
+        <v>210022.20614</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>250632.55397</v>
+        <v>379675.2887100001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>188157.59704</v>
+        <v>215200.73234</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>367613.8165599999</v>
+        <v>543777.8932800001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>359366.49018</v>
+        <v>417000.14225</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>482884.77993</v>
+        <v>625095.24734</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>450583.30057</v>
+        <v>674519.66124</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>461435.17786</v>
+        <v>632958.37769</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2277227.06489</v>
+        <v>2628606.7794</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1052282.7733</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1126740.70915</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2046515.846</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>32550.7378</v>
+        <v>33515.00158</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>26911.12182</v>
+        <v>27597.83154</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>26638.12652</v>
+        <v>29030.35626</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>30557.19289</v>
+        <v>31022.25329</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>40379.75126999999</v>
+        <v>42480.22859</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>41542.40432</v>
+        <v>42532.15134</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>40501.35783</v>
+        <v>41217.55581000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>46458.47908999999</v>
+        <v>49291.38371</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>52603.39595000001</v>
+        <v>56087.69959</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>82142.06513000002</v>
+        <v>81851.07047000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>112072.86504</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>112001.69864</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>137786.055</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>45895.95852000001</v>
+        <v>69500.70035</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>23592.93987</v>
+        <v>26819.36602</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>33171.41589</v>
+        <v>27692.27883</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>31570.41098999999</v>
+        <v>30284.22082</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>41028.01729</v>
+        <v>45807.69337000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>75179.43774999998</v>
+        <v>75003.76755</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>45110.90227</v>
+        <v>50029.02985</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>59860.43809</v>
+        <v>64346.21013</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>44791.09382</v>
+        <v>62317.14929999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>91001.31826</v>
+        <v>349293.06889</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>85384.33385</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>128861.57273</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>80010.558</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>1204.71536</v>
+        <v>1424.09697</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>1431.42477</v>
+        <v>1240.88562</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1018.32863</v>
+        <v>1170.05173</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1512.24358</v>
+        <v>1501.86162</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>11843.26157</v>
+        <v>1016.81891</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1036.00899</v>
+        <v>1173.22513</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>2405.707440000001</v>
+        <v>2921.648</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>6631.15166</v>
+        <v>1857.13049</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>4471.65711</v>
+        <v>4057.38457</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>18435.67991</v>
+        <v>14011.4942</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>10470.83504</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>10504.26646</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>7239.116</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>73685.36612000001</v>
+        <v>93937.329</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>65433.51718000001</v>
+        <v>96345.31306</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>114605.64932</v>
+        <v>246717.3555</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>55819.25545999999</v>
+        <v>82567.71625999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>178686.64094</v>
+        <v>313408.3528</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>135651.74853</v>
+        <v>189885.67305</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>271202.1062100001</v>
+        <v>408386.0710199999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>210194.92159</v>
+        <v>445048.13305</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>217077.49908</v>
+        <v>387517.37053</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1836775.28754</v>
+        <v>1916767.83697</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>607468.5554099999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>623419.3176299999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1613151.882</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>1089.82438</v>
+        <v>1807.10541</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>626.59365</v>
+        <v>2489.99452</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>1075.63052</v>
+        <v>1061.93278</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>695.11528</v>
+        <v>1149.06088</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1412.6811</v>
+        <v>1617.3578</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1613.16992</v>
+        <v>1630.27872</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>994.8081099999999</v>
+        <v>1295.65702</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1271.91174</v>
+        <v>990.3487400000001</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>1511.82166</v>
+        <v>1563.14707</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>2542.8362</v>
+        <v>4206.62084</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>11728.26728</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>5410.37433</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>3528.424</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>6813.441650000001</v>
+        <v>6601.728569999999</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>6683.257529999999</v>
+        <v>6003.54823</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>10489.58733</v>
+        <v>12195.05827</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>4131.11285</v>
+        <v>3746.48623</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>12099.37192</v>
+        <v>10555.56029</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>16559.22622</v>
+        <v>11440.07685</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>21958.72085</v>
+        <v>19367.84658</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>17685.91967</v>
+        <v>15520.74449</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>28173.12665</v>
+        <v>24154.65782</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>106891.82671</v>
+        <v>92637.77862000001</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>37672.9345</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>31572.47015</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>62332.567</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>36512.86551</v>
+        <v>40674.83207</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>57511.05935</v>
+        <v>49525.26715000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>63633.81576</v>
+        <v>61808.25534</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>63872.26599</v>
+        <v>64929.13324000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>82164.09247000002</v>
+        <v>128891.88152</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>87784.49445000001</v>
+        <v>95334.96961</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>100711.17722</v>
+        <v>101877.43906</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>108480.47873</v>
+        <v>97465.71063</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>112806.58359</v>
+        <v>97260.96881000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>139438.05114</v>
+        <v>169838.90941</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>187484.98218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>214971.00921</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>142467.244</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>516456.62813</v>
+        <v>534240.7790900001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>427190.71641</v>
+        <v>451179.29957</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>496583.8156299999</v>
+        <v>525810.8983</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>619016.3827600001</v>
+        <v>660326.3321399998</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>774762.91399</v>
+        <v>831471.6530600002</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>876686.8228599998</v>
+        <v>942452.26145</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>966506.0242100001</v>
+        <v>1082874.76696</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1086886.33527</v>
+        <v>1269473.29506</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1209449.90778</v>
+        <v>1448694.43669</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2819047.63239</v>
+        <v>3077968.21681</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3071279.94711</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3097848.19812</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2840479.995</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>491695.2739499999</v>
+        <v>498406.60927</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>405264.01573</v>
+        <v>426437.63109</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>473263.07434</v>
+        <v>495336.27834</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>589465.37792</v>
+        <v>623954.52844</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>737028.4675899999</v>
+        <v>791310.0016200001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>834596.3037600002</v>
+        <v>895460.7832599999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>917016.51686</v>
+        <v>1023017.73342</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1030647.55568</v>
+        <v>1193318.20577</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1151439.72617</v>
+        <v>1364339.18877</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2660849.95215</v>
+        <v>2881381.09441</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2783820.3199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2937185.89017</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2679010.281</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>24761.35418</v>
+        <v>35834.16982</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>21926.70068</v>
+        <v>24741.66848</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>23320.74129</v>
+        <v>30474.61996</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>29551.00484000001</v>
+        <v>36371.8037</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>37734.4464</v>
+        <v>40161.65143999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>42090.5191</v>
+        <v>46991.47819</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>49489.50734999999</v>
+        <v>59857.03354</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>56238.77959000001</v>
+        <v>76155.08929</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>58010.18161</v>
+        <v>84355.24792000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>158197.68024</v>
+        <v>196587.1224</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>287459.62721</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>160662.30795</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>161469.714</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>709665.91172</v>
+        <v>665298.3280399999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1014570.19765</v>
+        <v>1035676.0135</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1066627.81528</v>
+        <v>1100532.22422</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>941623.64688</v>
+        <v>1025935.94177</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1228357.79567</v>
+        <v>1151955.9125</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1172555.11598</v>
+        <v>1232032.53884</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1267927.18396</v>
+        <v>1230367.27736</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1136079.22188</v>
+        <v>1107284.64091</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1526713.36048</v>
+        <v>1549940.99191</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>872746.7208500002</v>
+        <v>343484.9431</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1547847.20893</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1712589.77539</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2341077.601</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>156391.06866</v>
+        <v>158479.80743</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>170724.99826</v>
+        <v>200939.24778</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>217049.35922</v>
+        <v>253713.8828</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>232130.72963</v>
+        <v>237941.55866</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>315482.27762</v>
+        <v>317089.88472</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>397030.54096</v>
+        <v>422564.94274</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>391124.92833</v>
+        <v>440615.83511</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>453783.93033</v>
+        <v>465815.92195</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>472295.23484</v>
+        <v>548513.18252</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>731715.6693099999</v>
+        <v>749677.6924299999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>956658.4972800001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>985215.85986</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1430198.09</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>6057.1367</v>
+        <v>6120.51</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>3685.072900000001</v>
+        <v>3792.81292</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>4668.13171</v>
+        <v>4763.57846</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>6065.00809</v>
+        <v>5271.30092</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>10855.00837</v>
+        <v>8807.30803</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>8673.039139999999</v>
+        <v>6891.00536</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>5044.95253</v>
+        <v>4909.94993</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>9218.33073</v>
+        <v>5718.40401</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>5986.63199</v>
+        <v>5664.28092</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>12262.63306</v>
+        <v>11395.4132</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>32225.37018</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>20796.85231</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>12433.791</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>150333.93196</v>
+        <v>152359.29743</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>167039.92536</v>
+        <v>197146.43486</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>212381.22751</v>
+        <v>248950.30434</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>226065.72154</v>
+        <v>232670.25774</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>304627.26925</v>
+        <v>308282.57669</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>388357.50182</v>
+        <v>415673.93738</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>386079.9758000001</v>
+        <v>435705.8851799999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>444565.5996</v>
+        <v>460097.51794</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>466308.60285</v>
+        <v>542848.9016</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>719453.03625</v>
+        <v>738282.27923</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>924433.1271</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>964419.0075500001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1417764.299</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>128542.46532</v>
+        <v>121918.77644</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>146128.94093</v>
+        <v>148616.44594</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>995484.44552</v>
+        <v>1049674.21323</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>163536.66846</v>
+        <v>183851.01818</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>230374.8245</v>
+        <v>290941.97081</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>619199.73061</v>
+        <v>622967.4033999998</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>271534.79291</v>
+        <v>277997.14371</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1075255.28411</v>
+        <v>1050624.0672</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>335946.93994</v>
+        <v>354443.22837</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1089709.34896</v>
+        <v>1036367.84499</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>625422.4369099999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>598821.31793</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>672273.868</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>3032.592059999999</v>
+        <v>3011.72565</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2284.92875</v>
+        <v>2024.93874</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>2030.64286</v>
+        <v>1407.68423</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2486.76711</v>
+        <v>2046.79114</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2895.28497</v>
+        <v>7598.803690000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1516.1841</v>
+        <v>1314.43957</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>2630.63762</v>
+        <v>1313.59353</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2372.47845</v>
+        <v>2898.72565</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2532.88198</v>
+        <v>2035.03015</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>3481.171139999999</v>
+        <v>3401.54679</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>4218.20173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2950.11298</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>6625.501</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>11501.46144</v>
+        <v>13486.47007</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>7011.928390000001</v>
+        <v>13886.17907</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>12726.09258</v>
+        <v>12609.9426</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>9084.898620000002</v>
+        <v>7772.82146</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>9998.71709</v>
+        <v>8414.187749999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>14278.29253</v>
+        <v>13788.04302</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>7647.483399999999</v>
+        <v>7151.474190000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>26405.39813</v>
+        <v>11044.66032</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>23218.11931</v>
+        <v>9807.683499999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>16602.41706</v>
+        <v>10246.60225</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>48332.46773999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>31920.61930000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>24761.88</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>114008.41182</v>
+        <v>105420.58072</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>136832.08379</v>
+        <v>132705.32813</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>980727.7100800001</v>
+        <v>1035656.5864</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>151965.00273</v>
+        <v>174031.40558</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>217480.82244</v>
+        <v>274928.97937</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>603405.25398</v>
+        <v>607864.92081</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>261256.67189</v>
+        <v>269532.07599</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1046477.40753</v>
+        <v>1036680.68123</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>310195.93865</v>
+        <v>342600.51472</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1069625.76076</v>
+        <v>1022719.69595</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>572871.7674400001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>563950.58565</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>640886.487</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>737514.5150599999</v>
+        <v>701859.3590299999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1039166.25498</v>
+        <v>1087998.81534</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>288192.72898</v>
+        <v>304571.89379</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1010217.70805</v>
+        <v>1080026.48225</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1313465.24879</v>
+        <v>1178103.82641</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>950385.92633</v>
+        <v>1031630.07818</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1387517.31938</v>
+        <v>1392985.96876</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>514607.8681</v>
+        <v>522476.49566</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1663061.65538</v>
+        <v>1744010.94606</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>514753.0412</v>
+        <v>56794.79053999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1879083.2693</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2098984.31732</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3099001.823</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>177662.85991</v>
+        <v>174910.97184</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>208409.67795</v>
+        <v>206309.89374</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>240001.79214</v>
+        <v>237208.85844</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>238236.95434</v>
+        <v>240674.12618</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>319737.27072</v>
+        <v>323359.416</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>323949.58775</v>
+        <v>323816.53482</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>351364.33055</v>
+        <v>355414.26948</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>359220.22412</v>
+        <v>364995.89553</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>389295.29519</v>
+        <v>399018.12764</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>549794.4787</v>
+        <v>526382.75845</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>652999.70553</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>649933.78102</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>820415.64</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>559851.65515</v>
+        <v>526948.3871899999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>830756.5770299999</v>
+        <v>881688.9215999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>48190.93683999999</v>
+        <v>67363.03535000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>771980.7537100001</v>
+        <v>839352.3560700001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>993727.9780700001</v>
+        <v>854744.4104099999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>626436.3385800001</v>
+        <v>707813.54336</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1036152.98883</v>
+        <v>1037571.69928</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>155387.64398</v>
+        <v>157480.60013</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1273766.36019</v>
+        <v>1344992.81842</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-35041.43749999999</v>
+        <v>-469587.96791</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1226083.56377</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1449050.5363</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2278586.183</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>15765</v>
+        <v>13532</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>17307</v>
+        <v>14682</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>19545</v>
+        <v>16610</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>21001</v>
+        <v>17831</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>23660</v>
+        <v>19629</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>25031</v>
+        <v>20465</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>26576</v>
+        <v>21612</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>28137</v>
+        <v>22358</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>30055</v>
+        <v>23617</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>18457</v>
+        <v>15536</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>19210</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>15939</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>16937</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>